--- a/лабы/1.4.8/1.4.8.xlsx
+++ b/лабы/1.4.8/1.4.8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>L = 60</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>.5 volts/div</t>
+  </si>
+  <si>
+    <t>dв</t>
+  </si>
+  <si>
+    <t>dмк</t>
+  </si>
+  <si>
+    <t>dшт</t>
   </si>
 </sst>
 </file>
@@ -405,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -416,7 +425,7 @@
     <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -450,8 +459,17 @@
       <c r="M1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -486,11 +504,24 @@
         <v>40.954999999999998</v>
       </c>
       <c r="M2">
-        <f xml:space="preserve"> L2/(3.14159*J2*(K2/2)^2)*1000</f>
-        <v>8.90403141863721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <f xml:space="preserve"> L2/(3.14159*J2*(K2/2)^2)*1000000</f>
+        <v>8904.0314186372088</v>
+      </c>
+      <c r="N2">
+        <f>M2*SQRT((O2/L2)^2 + 2*(P2/(K2/2))^2 + (Q2/J2)^2)</f>
+        <v>30.475605318622133</v>
+      </c>
+      <c r="O2">
+        <v>1E-3</v>
+      </c>
+      <c r="P2">
+        <v>0.01</v>
+      </c>
+      <c r="Q2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -525,11 +556,24 @@
         <v>36.902000000000001</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M4" si="0" xml:space="preserve"> L3/(3.14159*J3*(K3/2)^2)*1000</f>
-        <v>7.562413626023778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <f t="shared" ref="M3:M4" si="0" xml:space="preserve"> L3/(3.14159*J3*(K3/2)^2)*1000000</f>
+        <v>7562.4136260237774</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="1">M3*SQRT((O3/L3)^2 + 2*(P3/(K3/2))^2 + (Q3/J3)^2)</f>
+        <v>25.341245687337192</v>
+      </c>
+      <c r="O3">
+        <v>1E-3</v>
+      </c>
+      <c r="P3">
+        <v>0.01</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -565,10 +609,23 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>2.7799372189570923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2779.9372189570922</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>9.3546170723836628</v>
+      </c>
+      <c r="O4">
+        <v>1E-3</v>
+      </c>
+      <c r="P4">
+        <v>0.01</v>
+      </c>
+      <c r="Q4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="F5">
         <v>21535</v>
       </c>
@@ -576,17 +633,17 @@
         <v>29101</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:17">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -594,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -608,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:17">
       <c r="B10">
         <v>4132</v>
       </c>
@@ -616,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:17">
       <c r="B11">
         <v>4130</v>
       </c>
@@ -624,7 +681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -635,7 +692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:17">
       <c r="B15">
         <v>4255.5</v>
       </c>
@@ -643,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:17">
       <c r="B16">
         <v>4253</v>
       </c>
@@ -680,6 +737,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
